--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Chad-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Chad-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H2">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I2">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J2">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N2">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P2">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q2">
-        <v>0.3681081938413333</v>
+        <v>1.163718534189333</v>
       </c>
       <c r="R2">
-        <v>3.312973744572</v>
+        <v>10.473466807704</v>
       </c>
       <c r="S2">
-        <v>0.01510016822264909</v>
+        <v>0.05156310915626622</v>
       </c>
       <c r="T2">
-        <v>0.01510016822264908</v>
+        <v>0.05156310915626624</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H3">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I3">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J3">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.204062</v>
       </c>
       <c r="O3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P3">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q3">
-        <v>0.196471232154</v>
+        <v>0.488352717162</v>
       </c>
       <c r="R3">
-        <v>1.768241089386</v>
+        <v>4.395174454458</v>
       </c>
       <c r="S3">
-        <v>0.008059447483299729</v>
+        <v>0.02163838052070291</v>
       </c>
       <c r="T3">
-        <v>0.008059447483299726</v>
+        <v>0.02163838052070291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H4">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I4">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J4">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N4">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P4">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q4">
-        <v>0.009261117256</v>
+        <v>0.04663223404655556</v>
       </c>
       <c r="R4">
-        <v>0.08335005530400001</v>
+        <v>0.419690106419</v>
       </c>
       <c r="S4">
-        <v>0.0003799003413533246</v>
+        <v>0.002066223836520845</v>
       </c>
       <c r="T4">
-        <v>0.0003799003413533245</v>
+        <v>0.002066223836520845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.140201</v>
+        <v>0.3484863333333333</v>
       </c>
       <c r="H5">
-        <v>0.420603</v>
+        <v>1.045459</v>
       </c>
       <c r="I5">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213966</v>
       </c>
       <c r="J5">
-        <v>0.02759063995199814</v>
+        <v>0.08515845388213968</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N5">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P5">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q5">
-        <v>0.09875730399799999</v>
+        <v>0.2232223400061111</v>
       </c>
       <c r="R5">
-        <v>0.888815735982</v>
+        <v>2.009001060055</v>
       </c>
       <c r="S5">
-        <v>0.004051123904696002</v>
+        <v>0.009890740368649687</v>
       </c>
       <c r="T5">
-        <v>0.004051123904696001</v>
+        <v>0.009890740368649687</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>8.348417</v>
       </c>
       <c r="I6">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J6">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N6">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P6">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q6">
-        <v>7.306464060656443</v>
+        <v>9.292767668594667</v>
       </c>
       <c r="R6">
-        <v>65.758176545908</v>
+        <v>83.634909017352</v>
       </c>
       <c r="S6">
-        <v>0.2997185019907689</v>
+        <v>0.4117524810184126</v>
       </c>
       <c r="T6">
-        <v>0.2997185019907689</v>
+        <v>0.4117524810184127</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.348417</v>
       </c>
       <c r="I7">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J7">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>4.204062</v>
       </c>
       <c r="O7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P7">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q7">
         <v>3.899695852206</v>
@@ -886,10 +886,10 @@
         <v>35.097262669854</v>
       </c>
       <c r="S7">
-        <v>0.1599694447737811</v>
+        <v>0.1727913039071882</v>
       </c>
       <c r="T7">
-        <v>0.1599694447737811</v>
+        <v>0.1727913039071882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>8.348417</v>
       </c>
       <c r="I8">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J8">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N8">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P8">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q8">
-        <v>0.1838210111173333</v>
+        <v>0.3723774298774445</v>
       </c>
       <c r="R8">
-        <v>1.654389100056</v>
+        <v>3.351396868897</v>
       </c>
       <c r="S8">
-        <v>0.007540522697317656</v>
+        <v>0.01649964102142298</v>
       </c>
       <c r="T8">
-        <v>0.007540522697317653</v>
+        <v>0.01649964102142298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>8.348417</v>
       </c>
       <c r="I9">
-        <v>0.5476379569716346</v>
+        <v>0.6800250264078943</v>
       </c>
       <c r="J9">
-        <v>0.5476379569716345</v>
+        <v>0.6800250264078944</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N9">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P9">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q9">
-        <v>1.960202745988666</v>
+        <v>1.782521531773889</v>
       </c>
       <c r="R9">
-        <v>17.641824713898</v>
+        <v>16.042693785965</v>
       </c>
       <c r="S9">
-        <v>0.08040948750976688</v>
+        <v>0.0789816004608706</v>
       </c>
       <c r="T9">
-        <v>0.08040948750976687</v>
+        <v>0.0789816004608706</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H10">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I10">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J10">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N10">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P10">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q10">
-        <v>2.081328921120444</v>
+        <v>1.880647354421333</v>
       </c>
       <c r="R10">
-        <v>18.731960290084</v>
+        <v>16.925826189792</v>
       </c>
       <c r="S10">
-        <v>0.0853782049989632</v>
+        <v>0.08332944949443717</v>
       </c>
       <c r="T10">
-        <v>0.08537820499896319</v>
+        <v>0.08332944949443719</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H11">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I11">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J11">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>4.204062</v>
       </c>
       <c r="O11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P11">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q11">
-        <v>1.110872467638</v>
+        <v>0.789210808776</v>
       </c>
       <c r="R11">
-        <v>9.997852208742001</v>
+        <v>7.102897278984001</v>
       </c>
       <c r="S11">
-        <v>0.0455691055398604</v>
+        <v>0.03496907704453664</v>
       </c>
       <c r="T11">
-        <v>0.04556910553986038</v>
+        <v>0.03496907704453664</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H12">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I12">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J12">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N12">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P12">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q12">
-        <v>0.05236349396533335</v>
+        <v>0.07536082395688889</v>
       </c>
       <c r="R12">
-        <v>0.4712714456880001</v>
+        <v>0.6782474156120001</v>
       </c>
       <c r="S12">
-        <v>0.002148003170891165</v>
+        <v>0.003339156572342614</v>
       </c>
       <c r="T12">
-        <v>0.002148003170891165</v>
+        <v>0.003339156572342614</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7927136666666668</v>
+        <v>0.5631773333333333</v>
       </c>
       <c r="H13">
-        <v>2.378141</v>
+        <v>1.689532</v>
       </c>
       <c r="I13">
-        <v>0.1560008656288348</v>
+        <v>0.137621784215736</v>
       </c>
       <c r="J13">
-        <v>0.1560008656288348</v>
+        <v>0.1376217842157361</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N13">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P13">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q13">
-        <v>0.5583859213726667</v>
+        <v>0.3607423022377778</v>
       </c>
       <c r="R13">
-        <v>5.025473292354</v>
+        <v>3.24668072014</v>
       </c>
       <c r="S13">
-        <v>0.02290555191912006</v>
+        <v>0.01598410110441963</v>
       </c>
       <c r="T13">
-        <v>0.02290555191912006</v>
+        <v>0.01598410110441963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H14">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I14">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J14">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N14">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P14">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q14">
-        <v>0.4109111872488889</v>
+        <v>0.8290998801466667</v>
       </c>
       <c r="R14">
-        <v>3.69820068524</v>
+        <v>7.46189892132</v>
       </c>
       <c r="S14">
-        <v>0.01685599004813559</v>
+        <v>0.03673651863870235</v>
       </c>
       <c r="T14">
-        <v>0.01685599004813558</v>
+        <v>0.03673651863870236</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H15">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I15">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J15">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>4.204062</v>
       </c>
       <c r="O15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P15">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q15">
-        <v>0.2193165721800001</v>
+        <v>0.34793050671</v>
       </c>
       <c r="R15">
-        <v>1.97384914962</v>
+        <v>3.13137456039</v>
       </c>
       <c r="S15">
-        <v>0.008996586300820623</v>
+        <v>0.0154164243063984</v>
       </c>
       <c r="T15">
-        <v>0.008996586300820619</v>
+        <v>0.0154164243063984</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H16">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I16">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J16">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N16">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P16">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q16">
-        <v>0.01033798418666667</v>
+        <v>0.03322348018277778</v>
       </c>
       <c r="R16">
-        <v>0.09304185768000001</v>
+        <v>0.299011321645</v>
       </c>
       <c r="S16">
-        <v>0.0004240745055760408</v>
+        <v>0.001472096460514825</v>
       </c>
       <c r="T16">
-        <v>0.0004240745055760406</v>
+        <v>0.001472096460514825</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1565033333333334</v>
+        <v>0.2482816666666667</v>
       </c>
       <c r="H17">
-        <v>0.46951</v>
+        <v>0.744845</v>
       </c>
       <c r="I17">
-        <v>0.03079883254247509</v>
+        <v>0.06067177056378329</v>
       </c>
       <c r="J17">
-        <v>0.03079883254247508</v>
+        <v>0.0606717705637833</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N17">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P17">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q17">
-        <v>0.1102406349933334</v>
+        <v>0.1590364077805556</v>
       </c>
       <c r="R17">
-        <v>0.9921657149400001</v>
+        <v>1.431327670025</v>
       </c>
       <c r="S17">
-        <v>0.004522181687942835</v>
+        <v>0.007046731158167729</v>
       </c>
       <c r="T17">
-        <v>0.004522181687942834</v>
+        <v>0.00704673115816773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H18">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I18">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J18">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.625574666666667</v>
+        <v>3.339352</v>
       </c>
       <c r="N18">
-        <v>7.876724</v>
+        <v>10.018056</v>
       </c>
       <c r="O18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="P18">
-        <v>0.5472931490143097</v>
+        <v>0.6054960700393903</v>
       </c>
       <c r="Q18">
-        <v>3.174965663368</v>
+        <v>0.4990984368026667</v>
       </c>
       <c r="R18">
-        <v>28.574690970312</v>
+        <v>4.491885931224</v>
       </c>
       <c r="S18">
-        <v>0.1302402837537929</v>
+        <v>0.02211451173157197</v>
       </c>
       <c r="T18">
-        <v>0.1302402837537929</v>
+        <v>0.02211451173157197</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H19">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I19">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J19">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>4.204062</v>
       </c>
       <c r="O19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="P19">
-        <v>0.292108030017479</v>
+        <v>0.2540955070726236</v>
       </c>
       <c r="Q19">
-        <v>1.694581719084</v>
+        <v>0.209445901722</v>
       </c>
       <c r="R19">
-        <v>15.251235471756</v>
+        <v>1.885013115498</v>
       </c>
       <c r="S19">
-        <v>0.06951344591971716</v>
+        <v>0.00928032129379751</v>
       </c>
       <c r="T19">
-        <v>0.06951344591971713</v>
+        <v>0.009280321293797508</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H20">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I20">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J20">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.066056</v>
+        <v>0.1338136666666667</v>
       </c>
       <c r="N20">
-        <v>0.198168</v>
+        <v>0.401441</v>
       </c>
       <c r="O20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787613</v>
       </c>
       <c r="P20">
-        <v>0.01376917469164436</v>
+        <v>0.02426328499787612</v>
       </c>
       <c r="Q20">
-        <v>0.079877953776</v>
+        <v>0.01999974601544445</v>
       </c>
       <c r="R20">
-        <v>0.7189015839840001</v>
+        <v>0.179997714139</v>
       </c>
       <c r="S20">
-        <v>0.003276673976506176</v>
+        <v>0.0008861671070748638</v>
       </c>
       <c r="T20">
-        <v>0.003276673976506175</v>
+        <v>0.0008861671070748637</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.209246</v>
+        <v>0.1494596666666667</v>
       </c>
       <c r="H21">
-        <v>3.627738</v>
+        <v>0.448379</v>
       </c>
       <c r="I21">
-        <v>0.2379717049050574</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="J21">
-        <v>0.2379717049050573</v>
+        <v>0.03652296493044672</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.704398</v>
+        <v>0.6405483333333334</v>
       </c>
       <c r="N21">
-        <v>2.113194</v>
+        <v>1.921645</v>
       </c>
       <c r="O21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="P21">
-        <v>0.1468296462765669</v>
+        <v>0.11614513789011</v>
       </c>
       <c r="Q21">
-        <v>0.851790463908</v>
+        <v>0.09573614038388889</v>
       </c>
       <c r="R21">
-        <v>7.666114175172</v>
+        <v>0.861625263455</v>
       </c>
       <c r="S21">
-        <v>0.03494130125504114</v>
+        <v>0.004241964798002388</v>
       </c>
       <c r="T21">
-        <v>0.03494130125504113</v>
+        <v>0.004241964798002387</v>
       </c>
     </row>
   </sheetData>
